--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -447,6 +449,11 @@
           <t>情感分类</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>token消耗</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -459,6 +466,9 @@
           <t>正面</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -471,6 +481,9 @@
           <t>负面</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -483,6 +496,9 @@
           <t>中性</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -495,6 +511,9 @@
           <t>正面</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -507,6 +526,9 @@
           <t>负面</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -519,6 +541,9 @@
           <t>中性</t>
         </is>
       </c>
+      <c r="C7" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -531,6 +556,9 @@
           <t>正面</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -543,6 +571,9 @@
           <t>负面</t>
         </is>
       </c>
+      <c r="C9" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -555,6 +586,9 @@
           <t>中性</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -567,6 +601,9 @@
           <t>正面</t>
         </is>
       </c>
+      <c r="C11" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -579,6 +616,9 @@
           <t>负面</t>
         </is>
       </c>
+      <c r="C12" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -591,6 +631,9 @@
           <t>中性</t>
         </is>
       </c>
+      <c r="C13" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -603,6 +646,9 @@
           <t>正面</t>
         </is>
       </c>
+      <c r="C14" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -615,6 +661,9 @@
           <t>负面</t>
         </is>
       </c>
+      <c r="C15" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -627,6 +676,9 @@
           <t>中性</t>
         </is>
       </c>
+      <c r="C16" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -639,6 +691,9 @@
           <t>正面</t>
         </is>
       </c>
+      <c r="C17" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -651,6 +706,9 @@
           <t>负面</t>
         </is>
       </c>
+      <c r="C18" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -663,6 +721,9 @@
           <t>中性</t>
         </is>
       </c>
+      <c r="C19" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -675,6 +736,9 @@
           <t>正面</t>
         </is>
       </c>
+      <c r="C20" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -687,6 +751,9 @@
           <t>负面</t>
         </is>
       </c>
+      <c r="C21" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -699,6 +766,9 @@
           <t>中性</t>
         </is>
       </c>
+      <c r="C22" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -711,6 +781,9 @@
           <t>正面</t>
         </is>
       </c>
+      <c r="C23" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -723,6 +796,9 @@
           <t>负面</t>
         </is>
       </c>
+      <c r="C24" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -735,6 +811,9 @@
           <t>中性</t>
         </is>
       </c>
+      <c r="C25" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -747,6 +826,9 @@
           <t>正面</t>
         </is>
       </c>
+      <c r="C26" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -759,6 +841,9 @@
           <t>负面</t>
         </is>
       </c>
+      <c r="C27" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -771,6 +856,9 @@
           <t>中性</t>
         </is>
       </c>
+      <c r="C28" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -783,6 +871,9 @@
           <t>正面</t>
         </is>
       </c>
+      <c r="C29" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -795,6 +886,9 @@
           <t>负面</t>
         </is>
       </c>
+      <c r="C30" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -806,6 +900,9 @@
         <is>
           <t>中性</t>
         </is>
+      </c>
+      <c r="C31" t="n">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -55,8 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -425,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,22 +437,40 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" style="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" style="1" min="4" max="4"/>
+    <col width="10" customWidth="1" style="1" min="5" max="5"/>
+    <col width="10" customWidth="1" style="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>商品评论</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>情感分类</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>标签</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>评分</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>处理状态</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>token消耗</t>
         </is>
@@ -466,8 +487,21 @@
           <t>正面</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>131</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['沙发', '材质']</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="3">
@@ -481,8 +515,21 @@
           <t>负面</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>143</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['手机', '死机']</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>437</v>
       </c>
     </row>
     <row r="4">
@@ -496,8 +543,21 @@
           <t>中性</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>155</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['笔记本电脑', '外观', '运行速度']</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>658</v>
       </c>
     </row>
     <row r="5">
@@ -511,8 +571,21 @@
           <t>正面</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>156</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['吸尘器', '吸力', '除尘效果']</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>690</v>
       </c>
     </row>
     <row r="6">
@@ -526,8 +599,21 @@
           <t>负面</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>154</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['空调', '噪音']</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>688</v>
       </c>
     </row>
     <row r="7">
@@ -541,8 +627,21 @@
           <t>中性</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>152</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['保温杯', '保温效果', '重量']</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>690</v>
       </c>
     </row>
     <row r="8">
@@ -556,8 +655,21 @@
           <t>正面</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>150</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['电视', '画面', '色彩', '性价比']</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>690</v>
       </c>
     </row>
     <row r="9">
@@ -571,8 +683,21 @@
           <t>负面</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>153</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['洗衣机', '清洗', '故障']</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>689</v>
       </c>
     </row>
     <row r="10">
@@ -586,8 +711,21 @@
           <t>中性</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>158</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['饮水机', '加热', '体积']</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>698</v>
       </c>
     </row>
     <row r="11">
@@ -601,8 +739,21 @@
           <t>正面</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>158</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['冰箱', '容量', '制冷']</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>696</v>
       </c>
     </row>
     <row r="12">
@@ -616,8 +767,21 @@
           <t>负面</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>159</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['床垫']</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>688</v>
       </c>
     </row>
     <row r="13">
@@ -631,8 +795,21 @@
           <t>中性</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>158</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['背包', '容量', '背带']</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>688</v>
       </c>
     </row>
     <row r="14">
@@ -646,8 +823,21 @@
           <t>正面</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>161</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['耳机', '音质', '佩戴', '续航']</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>694</v>
       </c>
     </row>
     <row r="15">
@@ -661,8 +851,21 @@
           <t>负面</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>160</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['烤箱', '温度']</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>690</v>
       </c>
     </row>
     <row r="16">
@@ -676,8 +879,21 @@
           <t>中性</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>157</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['台灯', '亮度', '底座']</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>695</v>
       </c>
     </row>
     <row r="17">
@@ -691,8 +907,21 @@
           <t>正面</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>155</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['微波炉', '操作', '加热']</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>693</v>
       </c>
     </row>
     <row r="18">
@@ -706,8 +935,21 @@
           <t>负面</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>153</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['椅子', '质量']</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>684</v>
       </c>
     </row>
     <row r="19">
@@ -721,8 +963,21 @@
           <t>中性</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>152</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['吹风机', '风力', '噪音']</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>687</v>
       </c>
     </row>
     <row r="20">
@@ -736,8 +991,21 @@
           <t>正面</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>153</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['书桌', '质量', '设计']</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>9</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>687</v>
       </c>
     </row>
     <row r="21">
@@ -751,8 +1019,21 @@
           <t>负面</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>154</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['充电宝', '充电速度', '容量']</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>689</v>
       </c>
     </row>
     <row r="22">
@@ -766,8 +1047,21 @@
           <t>中性</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>153</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['书架', '安装', '板材']</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>7</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>692</v>
       </c>
     </row>
     <row r="23">
@@ -781,8 +1075,21 @@
           <t>正面</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>154</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>['运动鞋', '穿着', '减震']</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>9</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>694</v>
       </c>
     </row>
     <row r="24">
@@ -796,8 +1103,21 @@
           <t>负面</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>154</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>['窗帘', '布料', '遮光']</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>695</v>
       </c>
     </row>
     <row r="25">
@@ -811,8 +1131,21 @@
           <t>中性</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>155</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>['打印机', '打印', '耗材']</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>7</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>694</v>
       </c>
     </row>
     <row r="26">
@@ -826,8 +1159,21 @@
           <t>正面</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>153</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['手表', '外观', '走时']</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>9</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>692</v>
       </c>
     </row>
     <row r="27">
@@ -841,8 +1187,21 @@
           <t>负面</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>151</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['路由器', '信号', '断网']</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>690</v>
       </c>
     </row>
     <row r="28">
@@ -856,8 +1215,21 @@
           <t>中性</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>151</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>['拖鞋', '穿着', '耐磨']</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>7</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>688</v>
       </c>
     </row>
     <row r="29">
@@ -871,8 +1243,21 @@
           <t>正面</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>152</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>['加湿器', '雾量', '静音']</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>693</v>
       </c>
     </row>
     <row r="30">
@@ -886,8 +1271,21 @@
           <t>负面</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>152</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>['锅具', '粘锅', '清洗']</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>694</v>
       </c>
     </row>
     <row r="31">
@@ -901,8 +1299,21 @@
           <t>中性</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>152</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>['闹钟', '设计', '铃声']</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>693</v>
       </c>
     </row>
   </sheetData>
